--- a/Dokumente/TimeTable.xlsx
+++ b/Dokumente/TimeTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -65,6 +65,39 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Design Anpassungen</t>
+  </si>
+  <si>
+    <t>Tables, Forms, Menu</t>
+  </si>
+  <si>
+    <t>CSS Integration</t>
+  </si>
+  <si>
+    <t>Glyphicons etc.</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>Versuche</t>
+  </si>
+  <si>
+    <t>Material Controller</t>
+  </si>
+  <si>
+    <t>Menue</t>
+  </si>
+  <si>
+    <t>Responsive Deisgn</t>
+  </si>
+  <si>
+    <t>Stunden [h]</t>
+  </si>
+  <si>
+    <t>Prozent [%]</t>
   </si>
 </sst>
 </file>
@@ -72,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,7 +152,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +476,7 @@
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -522,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -536,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -637,17 +676,81 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <f>SUMIF((D3:D39),D41,(C3:C39))</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="3">
         <f>C41*100/60</f>
-        <v>36.666666666666664</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
@@ -659,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" ref="E42:E44" si="0">C42*100/60</f>
+        <f t="shared" ref="E42:E43" si="0">C42*100/60</f>
         <v>36.666666666666664</v>
       </c>
     </row>
@@ -677,16 +780,16 @@
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <f>SUM(C41:C43)</f>
-        <v>60</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <f>C44*100/180</f>
-        <v>33.333333333333336</v>
+        <v>39.444444444444443</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/TimeTable.xlsx
+++ b/Dokumente/TimeTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>Prozent [%]</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Projekt</t>
+  </si>
+  <si>
+    <t>Tabelle DB</t>
+  </si>
+  <si>
+    <t>Prototyp</t>
   </si>
 </sst>
 </file>
@@ -467,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,6 +744,48 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>26</v>
@@ -743,53 +797,53 @@
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <f>SUMIF((D3:D39),D41,(C3:C39))</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="3">
         <f>C41*100/60</f>
-        <v>55</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <f>SUMIF((D4:D39),D42,(C4:C39))</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ref="E42:E43" si="0">C42*100/60</f>
-        <v>36.666666666666664</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <f>SUMIF((D4:D39),D43,(C4:C39))</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <f>SUM(C41:C43)</f>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="5">
         <f>C44*100/180</f>
-        <v>39.444444444444443</v>
+        <v>47.777777777777779</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/TimeTable.xlsx
+++ b/Dokumente/TimeTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -88,12 +88,6 @@
     <t>Material Controller</t>
   </si>
   <si>
-    <t>Menue</t>
-  </si>
-  <si>
-    <t>Responsive Deisgn</t>
-  </si>
-  <si>
     <t>Stunden [h]</t>
   </si>
   <si>
@@ -109,7 +103,49 @@
     <t>Tabelle DB</t>
   </si>
   <si>
-    <t>Prototyp</t>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Projektcontroller</t>
+  </si>
+  <si>
+    <t>Architektur</t>
+  </si>
+  <si>
+    <t>Coding / Bericht</t>
+  </si>
+  <si>
+    <t>Lessons Learned</t>
+  </si>
+  <si>
+    <t>Table Bundle Architektur</t>
+  </si>
+  <si>
+    <t>Diverses</t>
+  </si>
+  <si>
+    <t>Responsive Design</t>
+  </si>
+  <si>
+    <t>Projectcontroller</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Div. Ergänzungen</t>
+  </si>
+  <si>
+    <t>Code / Doku</t>
+  </si>
+  <si>
+    <t>Menu / Tabelle</t>
+  </si>
+  <si>
+    <t>Übergabe</t>
+  </si>
+  <si>
+    <t>Übersicht</t>
   </si>
 </sst>
 </file>
@@ -479,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +524,7 @@
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -732,21 +768,21 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -755,12 +791,12 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -769,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -786,64 +822,248 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <f>SUMIF((D3:D39),D41,(C3:C39))</f>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="3">
         <f>C41*100/60</f>
-        <v>63.333333333333336</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+        <v>103.33333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <f>SUMIF((D4:D39),D42,(C4:C39))</f>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ref="E42:E43" si="0">C42*100/60</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <f>SUMIF((D4:D39),D43,(C4:C39))</f>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <f>SUM(C41:C43)</f>
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="5">
         <f>C44*100/180</f>
-        <v>47.777777777777779</v>
+        <v>82.222222222222229</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/TimeTable.xlsx
+++ b/Dokumente/TimeTable.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>Übersicht</t>
+  </si>
+  <si>
+    <t>Codding</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Arbeitsrapport</t>
+  </si>
+  <si>
+    <t>Doku / Testing</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Coding / Testing</t>
+  </si>
+  <si>
+    <t>Controll</t>
+  </si>
+  <si>
+    <t>Testing / Aufräumen</t>
+  </si>
+  <si>
+    <t>GitHub / Doku</t>
   </si>
 </sst>
 </file>
@@ -227,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,9 +297,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,7 +369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,21 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E44"/>
+  <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,8 +571,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -556,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -570,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -584,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -598,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -612,7 +642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -626,7 +656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -640,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -654,7 +684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -668,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -682,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -696,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -710,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -724,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -738,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -752,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -766,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -780,7 +810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -794,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -808,7 +838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -822,7 +852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -836,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -850,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -864,7 +894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -878,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -892,7 +922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -906,40 +936,40 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -953,7 +983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -967,7 +997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -978,12 +1008,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -992,7 +1022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -1006,64 +1036,246 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="1">
-        <f>SUMIF((D3:D39),D41,(C3:C39))</f>
-        <v>62</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <f>C41*100/60</f>
-        <v>103.33333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="1">
-        <f>SUMIF((D4:D39),D42,(C4:C39))</f>
-        <v>44</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" ref="E42:E43" si="0">C42*100/60</f>
-        <v>73.333333333333329</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="1">
-        <f>SUMIF((D4:D39),D43,(C4:C39))</f>
-        <v>42</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="4">
-        <f>SUM(C41:C43)</f>
-        <v>148</v>
-      </c>
-      <c r="D44" s="4" t="s">
+    <row r="53" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C53" s="1">
+        <f>SUMIF((D3:D51),D53,(C3:C51))</f>
+        <v>73</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3">
+        <f>C53*100/60</f>
+        <v>121.66666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C54" s="1">
+        <f>SUMIF((D4:D51),D54,(C4:C51))</f>
+        <v>82</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3">
+        <f>C54*100/60</f>
+        <v>136.66666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C55" s="1">
+        <f>SUMIF((D4:D51),D55,(C4:C51))</f>
+        <v>81</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ref="E55" si="0">C55*100/60</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C56" s="4">
+        <f>SUM(C53:C55)</f>
+        <v>236</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="5">
-        <f>C44*100/180</f>
-        <v>82.222222222222229</v>
+      <c r="E56" s="5">
+        <f>C56*100/180</f>
+        <v>131.11111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/TimeTable.xlsx
+++ b/Dokumente/TimeTable.xlsx
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
         <v>53</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -1229,14 +1229,14 @@
     <row r="53" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <f>SUMIF((D3:D51),D53,(C3:C51))</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="3">
         <f>C53*100/60</f>
-        <v>121.66666666666667</v>
+        <v>123.33333333333333</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -1268,14 +1268,14 @@
     <row r="56" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <f>SUM(C53:C55)</f>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="5">
         <f>C56*100/180</f>
-        <v>131.11111111111111</v>
+        <v>131.66666666666666</v>
       </c>
     </row>
   </sheetData>
